--- a/src/dataEngine/invoicedemoFailScenario.xlsx
+++ b/src/dataEngine/invoicedemoFailScenario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\eclipse-workspace\EngageReady\src\dataEngine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FA9054-56C3-485A-9FA5-F65DA5ED0B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023BD584-C4C9-41F4-BAB3-73E8D2678666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{B42BD951-151D-4FEC-98F1-EE6B5EDA39D0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="311">
   <si>
     <t>Transaction_Name</t>
   </si>
@@ -5325,10 +5325,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F11B38-1DDE-49CC-8C51-2C4AA8C44AA2}">
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4:I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5340,7 +5340,7 @@
     <col min="9" max="9" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="21" t="s">
         <v>28</v>
       </c>
@@ -5369,7 +5369,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="19" customFormat="1">
+    <row r="2" spans="1:10" s="19" customFormat="1">
       <c r="A2" s="19" t="s">
         <v>16</v>
       </c>
@@ -5389,7 +5389,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="19" customFormat="1">
+    <row r="3" spans="1:10" s="19" customFormat="1">
       <c r="A3" s="19" t="s">
         <v>16</v>
       </c>
@@ -5409,7 +5409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="19" customFormat="1">
+    <row r="4" spans="1:10" s="19" customFormat="1">
       <c r="A4" s="19" t="s">
         <v>176</v>
       </c>
@@ -5431,8 +5431,11 @@
       <c r="I4" s="14" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" s="19" customFormat="1">
+      <c r="J4" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="19" customFormat="1">
       <c r="A5" s="19" t="s">
         <v>176</v>
       </c>
@@ -5456,8 +5459,11 @@
       <c r="I5" s="14" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" s="19" customFormat="1">
+      <c r="J5" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="19" customFormat="1">
       <c r="A6" s="19" t="s">
         <v>176</v>
       </c>
@@ -5481,8 +5487,11 @@
       <c r="I6" s="14" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" s="19" customFormat="1">
+      <c r="J6" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="19" customFormat="1">
       <c r="A7" s="19" t="s">
         <v>176</v>
       </c>
@@ -5504,8 +5513,11 @@
       <c r="I7" s="14" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" s="19" customFormat="1">
+      <c r="J7" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="19" customFormat="1">
       <c r="A8" s="19" t="s">
         <v>176</v>
       </c>
@@ -5527,8 +5539,11 @@
       <c r="I8" s="14" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" s="19" customFormat="1">
+      <c r="J8" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="19" customFormat="1">
       <c r="A9" s="19" t="s">
         <v>176</v>
       </c>
@@ -5549,8 +5564,11 @@
       <c r="I9" s="14" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" s="19" customFormat="1">
+      <c r="J9" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="19" customFormat="1">
       <c r="A10" s="19" t="s">
         <v>176</v>
       </c>
@@ -5571,8 +5589,11 @@
       <c r="I10" s="14" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" s="19" customFormat="1">
+      <c r="J10" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="19" customFormat="1">
       <c r="A11" s="19" t="s">
         <v>176</v>
       </c>
@@ -5591,8 +5612,11 @@
       <c r="I11" s="19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" s="19" customFormat="1">
+      <c r="J11" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="19" customFormat="1">
       <c r="A12" s="19" t="s">
         <v>176</v>
       </c>
@@ -5611,8 +5635,11 @@
       <c r="I12" s="19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" s="19" customFormat="1">
+      <c r="J12" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="19" customFormat="1">
       <c r="A13" s="19" t="s">
         <v>176</v>
       </c>
@@ -5631,8 +5658,11 @@
       <c r="I13" s="19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" s="19" customFormat="1">
+      <c r="J13" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="19" customFormat="1">
       <c r="B14" s="19" t="s">
         <v>66</v>
       </c>
@@ -5646,8 +5676,11 @@
       <c r="I14" s="19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" s="19" customFormat="1">
+      <c r="J14" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="19" customFormat="1">
       <c r="A15" s="19" t="s">
         <v>176</v>
       </c>
@@ -5666,8 +5699,11 @@
       <c r="I15" s="19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" s="19" customFormat="1">
+      <c r="J15" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="19" customFormat="1">
       <c r="A16" s="19" t="s">
         <v>176</v>
       </c>
@@ -5689,8 +5725,11 @@
       <c r="I16" s="19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" s="19" customFormat="1">
+      <c r="J16" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="19" customFormat="1">
       <c r="A17" s="19" t="s">
         <v>176</v>
       </c>
@@ -5709,8 +5748,11 @@
       <c r="I17" s="19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" s="19" customFormat="1">
+      <c r="J17" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="19" customFormat="1">
       <c r="A18" s="19" t="s">
         <v>176</v>
       </c>
@@ -5729,8 +5771,11 @@
       <c r="I18" s="19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" s="19" customFormat="1">
+      <c r="J18" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="19" customFormat="1">
       <c r="A19" s="19" t="s">
         <v>176</v>
       </c>
@@ -5749,8 +5794,11 @@
       <c r="I19" s="19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" s="19" customFormat="1">
+      <c r="J19" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="19" customFormat="1">
       <c r="A20" s="19" t="s">
         <v>176</v>
       </c>
@@ -5769,8 +5817,11 @@
       <c r="I20" s="19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" s="19" customFormat="1">
+      <c r="J20" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="19" customFormat="1">
       <c r="A21" s="19" t="s">
         <v>176</v>
       </c>
@@ -5789,8 +5840,11 @@
       <c r="I21" s="19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" s="19" customFormat="1">
+      <c r="J21" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="19" customFormat="1">
       <c r="B22" s="19" t="s">
         <v>86</v>
       </c>
@@ -5806,8 +5860,11 @@
       <c r="I22" s="19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" s="19" customFormat="1">
+      <c r="J22" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="19" customFormat="1">
       <c r="B23" s="19" t="s">
         <v>87</v>
       </c>
@@ -5823,8 +5880,11 @@
       <c r="I23" s="19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" s="19" customFormat="1">
+      <c r="J23" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="19" customFormat="1">
       <c r="B24" s="19" t="s">
         <v>89</v>
       </c>
@@ -5840,8 +5900,11 @@
       <c r="I24" s="19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" s="19" customFormat="1">
+      <c r="J24" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="19" customFormat="1">
       <c r="B25" s="19" t="s">
         <v>92</v>
       </c>
@@ -5857,8 +5920,11 @@
       <c r="I25" s="19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="19" t="s">
         <v>37</v>
       </c>
@@ -5880,8 +5946,11 @@
       <c r="I26" s="19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="19" t="s">
         <v>37</v>
       </c>
@@ -5903,8 +5972,11 @@
       <c r="I27" s="19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="19" t="s">
         <v>37</v>
       </c>
@@ -5926,8 +5998,11 @@
       <c r="I28" s="19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="J28" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="19" t="s">
         <v>37</v>
       </c>
@@ -5949,8 +6024,11 @@
       <c r="I29" s="19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="J29" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="19"/>
       <c r="B30" s="19" t="s">
         <v>104</v>
@@ -5968,8 +6046,11 @@
       <c r="I30" s="19" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="J30" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="19"/>
       <c r="B31" s="19" t="s">
         <v>105</v>
@@ -5987,8 +6068,11 @@
       <c r="I31" s="19" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="J31" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="19"/>
       <c r="B32" s="19" t="s">
         <v>108</v>
@@ -6006,8 +6090,11 @@
       <c r="I32" s="19" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="J32" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="19"/>
       <c r="B33" s="19" t="s">
         <v>109</v>
@@ -6025,8 +6112,11 @@
       <c r="I33" s="19" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="J33" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="19"/>
       <c r="B34" s="19" t="s">
         <v>111</v>
@@ -6044,8 +6134,11 @@
       <c r="I34" s="19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="J34" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="19"/>
       <c r="B35" s="19" t="s">
         <v>112</v>
@@ -6063,8 +6156,11 @@
       <c r="I35" s="19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="J35" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="19" t="s">
         <v>37</v>
       </c>
@@ -6086,8 +6182,11 @@
       <c r="I36" s="19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="J36" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="19" t="s">
         <v>37</v>
       </c>
@@ -6109,8 +6208,11 @@
       <c r="I37" s="19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="19" t="s">
         <v>37</v>
       </c>
@@ -6132,8 +6234,11 @@
       <c r="I38" s="19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="J38" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="19" t="s">
         <v>37</v>
       </c>
@@ -6155,8 +6260,11 @@
       <c r="I39" s="19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="J39" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="19" t="s">
         <v>37</v>
       </c>
@@ -6178,8 +6286,11 @@
       <c r="I40" s="19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="J40" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="19" t="s">
         <v>37</v>
       </c>
@@ -6201,8 +6312,11 @@
       <c r="I41" s="19" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="J41" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="19" t="s">
         <v>37</v>
       </c>
@@ -6224,8 +6338,11 @@
       <c r="I42" s="19" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="J42" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="19" t="s">
         <v>37</v>
       </c>
@@ -6247,8 +6364,11 @@
       <c r="I43" s="19" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="J43" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="19" t="s">
         <v>37</v>
       </c>
@@ -6270,8 +6390,11 @@
       <c r="I44" s="19" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="J44" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="19" t="s">
         <v>37</v>
       </c>
@@ -6291,8 +6414,11 @@
       <c r="I45" s="19" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="J45" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="19" t="s">
         <v>37</v>
       </c>
@@ -6312,8 +6438,11 @@
       <c r="I46" s="19" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="J46" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="19" t="s">
         <v>37</v>
       </c>
@@ -6333,8 +6462,11 @@
       <c r="I47" s="19" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="J47" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="19" t="s">
         <v>37</v>
       </c>
@@ -6356,8 +6488,11 @@
       <c r="I48" s="19" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="J48" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="19" t="s">
         <v>37</v>
       </c>
@@ -6379,8 +6514,11 @@
       <c r="I49" s="19" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="J49" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="19" t="s">
         <v>37</v>
       </c>
@@ -6400,8 +6538,11 @@
       <c r="I50" s="19" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="J50" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="19" t="s">
         <v>37</v>
       </c>
@@ -6421,8 +6562,11 @@
       <c r="I51" s="19" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="J51" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="19" t="s">
         <v>37</v>
       </c>
@@ -6442,8 +6586,11 @@
       <c r="I52" s="19" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="J52" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="19" t="s">
         <v>37</v>
       </c>
@@ -6461,8 +6608,11 @@
       <c r="I53" s="19" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="J53" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="19" t="s">
         <v>37</v>
       </c>
@@ -6482,8 +6632,11 @@
       <c r="I54" s="19" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="55" spans="1:9">
+      <c r="J54" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="19" t="s">
         <v>37</v>
       </c>
@@ -6503,8 +6656,11 @@
       <c r="I55" s="19" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="56" spans="1:9">
+      <c r="J55" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="19" t="s">
         <v>37</v>
       </c>
@@ -6524,8 +6680,11 @@
       <c r="I56" s="19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="57" spans="1:9">
+      <c r="J56" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="19" t="s">
         <v>37</v>
       </c>
@@ -6545,8 +6704,11 @@
       <c r="I57" s="19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="J57" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="19" t="s">
         <v>37</v>
       </c>
@@ -6566,8 +6728,11 @@
       <c r="I58" s="19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="1:9">
+      <c r="J58" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="19" t="s">
         <v>37</v>
       </c>
@@ -6585,6 +6750,9 @@
       <c r="G59" s="19"/>
       <c r="H59" s="19"/>
       <c r="I59" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="19" t="s">
         <v>5</v>
       </c>
     </row>

--- a/src/dataEngine/invoicedemoFailScenario.xlsx
+++ b/src/dataEngine/invoicedemoFailScenario.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\eclipse-workspace\EngageReady\src\dataEngine\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gjoshi2\Documents\EclipseWorkspace\Gitlab\EngageReady\src\dataEngine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023BD584-C4C9-41F4-BAB3-73E8D2678666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18775B8D-42EB-4E2F-B2BB-DA2B9B30AEAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{B42BD951-151D-4FEC-98F1-EE6B5EDA39D0}"/>
   </bookViews>
@@ -31,12 +31,20 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="312">
   <si>
     <t>Transaction_Name</t>
   </si>
@@ -969,6 +977,9 @@
   </si>
   <si>
     <t>INV-0000231</t>
+  </si>
+  <si>
+    <t>openBrowserWithoutSecurity</t>
   </si>
 </sst>
 </file>
@@ -5327,8 +5338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F11B38-1DDE-49CC-8C51-2C4AA8C44AA2}">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:I59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5380,7 +5391,7 @@
         <v>200</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>201</v>
+        <v>311</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>295</v>

--- a/src/dataEngine/invoicedemoFailScenario.xlsx
+++ b/src/dataEngine/invoicedemoFailScenario.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gjoshi2\Documents\EclipseWorkspace\Gitlab\EngageReady\src\dataEngine\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\eclipse-workspace\EngageUpdated\src\dataEngine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18775B8D-42EB-4E2F-B2BB-DA2B9B30AEAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DBCF49-1A54-49D8-86DB-00A780F2C0B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{B42BD951-151D-4FEC-98F1-EE6B5EDA39D0}"/>
   </bookViews>
@@ -18,10 +18,11 @@
     <sheet name="RunConfig" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="6" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="Actions">[1]ActionKeywords!$A$2:$A$45</definedName>
@@ -31,20 +32,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="314">
   <si>
     <t>Transaction_Name</t>
   </si>
@@ -980,6 +973,12 @@
   </si>
   <si>
     <t>openBrowserWithoutSecurity</t>
+  </si>
+  <si>
+    <t>executeFunctionalBlock</t>
+  </si>
+  <si>
+    <t>Sheet3</t>
   </si>
 </sst>
 </file>
@@ -5336,10 +5335,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F11B38-1DDE-49CC-8C51-2C4AA8C44AA2}">
-  <dimension ref="A1:J59"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5391,10 +5390,10 @@
         <v>200</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="I2" s="19" t="s">
         <v>5</v>
@@ -5402,21 +5401,26 @@
     </row>
     <row r="3" spans="1:10" s="19" customFormat="1">
       <c r="A3" s="19" t="s">
-        <v>16</v>
+        <v>176</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>202</v>
+        <v>56</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>185</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="14" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5425,20 +5429,19 @@
         <v>176</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="25">
-        <v>5</v>
-      </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="27"/>
+        <v>58</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="19" t="s">
+        <v>186</v>
+      </c>
       <c r="I4" s="14" t="s">
         <v>5</v>
       </c>
@@ -5451,26 +5454,21 @@
         <v>176</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>177</v>
+        <v>59</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>39</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="H5" s="27"/>
-      <c r="I5" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="19">
+        <v>2</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="19" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5479,26 +5477,21 @@
         <v>176</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="H6" s="27"/>
-      <c r="I6" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="19" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5507,50 +5500,39 @@
         <v>176</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>182</v>
+        <v>63</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>39</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="H7" s="27"/>
-      <c r="I7" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="19">
+        <v>2</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="19" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="19" customFormat="1">
-      <c r="A8" s="19" t="s">
-        <v>176</v>
-      </c>
       <c r="B8" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="25">
-        <v>5</v>
-      </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="J8" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="19" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5559,23 +5541,21 @@
         <v>176</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="D9" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="D9" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
       <c r="G9" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="19" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5584,23 +5564,24 @@
         <v>176</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
+        <v>71</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>23</v>
+      </c>
       <c r="G10" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="19" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5609,16 +5590,16 @@
         <v>176</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>39</v>
+        <v>193</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="19">
-        <v>2</v>
+        <v>91</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>194</v>
       </c>
       <c r="I11" s="19" t="s">
         <v>5</v>
@@ -5632,16 +5613,16 @@
         <v>176</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>189</v>
+        <v>39</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="19">
+        <v>2</v>
       </c>
       <c r="I12" s="19" t="s">
         <v>5</v>
@@ -5655,16 +5636,16 @@
         <v>176</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="19">
-        <v>2</v>
+        <v>100</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>195</v>
       </c>
       <c r="I13" s="19" t="s">
         <v>5</v>
@@ -5674,12 +5655,17 @@
       </c>
     </row>
     <row r="14" spans="1:10" s="19" customFormat="1">
+      <c r="A14" s="19" t="s">
+        <v>176</v>
+      </c>
       <c r="B14" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="19" t="s">
-        <v>43</v>
+        <v>79</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>91</v>
       </c>
       <c r="G14" s="19" t="s">
         <v>195</v>
@@ -5696,42 +5682,36 @@
         <v>176</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="D15" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="19">
+        <v>8</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="19" customFormat="1">
+      <c r="B16" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="D16" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="I15" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="J15" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="19" customFormat="1">
-      <c r="A16" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>23</v>
-      </c>
       <c r="G16" s="19" t="s">
-        <v>191</v>
+        <v>302</v>
       </c>
       <c r="I16" s="19" t="s">
         <v>5</v>
@@ -5741,20 +5721,17 @@
       </c>
     </row>
     <row r="17" spans="1:10" s="19" customFormat="1">
-      <c r="A17" s="19" t="s">
-        <v>176</v>
-      </c>
       <c r="B17" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>193</v>
+        <v>87</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>296</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>91</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>194</v>
+        <v>302</v>
       </c>
       <c r="I17" s="19" t="s">
         <v>5</v>
@@ -5764,20 +5741,17 @@
       </c>
     </row>
     <row r="18" spans="1:10" s="19" customFormat="1">
-      <c r="A18" s="19" t="s">
-        <v>176</v>
-      </c>
       <c r="B18" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D18" s="25" t="s">
         <v>40</v>
       </c>
       <c r="E18" s="19">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I18" s="19" t="s">
         <v>5</v>
@@ -5787,223 +5761,230 @@
       </c>
     </row>
     <row r="19" spans="1:10" s="19" customFormat="1">
-      <c r="A19" s="19" t="s">
-        <v>176</v>
-      </c>
       <c r="B19" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="D19" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>310</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="19">
+        <v>5</v>
+      </c>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D21" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="I19" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="J19" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="19" customFormat="1">
-      <c r="A20" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="D20" s="25" t="s">
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="19">
+        <v>8</v>
+      </c>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="19"/>
+      <c r="B24" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="G20" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="I20" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="J20" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="19" customFormat="1">
-      <c r="A21" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="25" t="s">
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="J24" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="19"/>
+      <c r="B25" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="19">
-        <v>8</v>
-      </c>
-      <c r="I21" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="J21" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="19" customFormat="1">
-      <c r="B22" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>301</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>302</v>
-      </c>
-      <c r="I22" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="J22" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="19" customFormat="1">
-      <c r="B23" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>296</v>
-      </c>
-      <c r="D23" s="25" t="s">
+      <c r="E25" s="19">
+        <v>1</v>
+      </c>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="J25" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="19"/>
+      <c r="B26" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="G23" s="19" t="s">
-        <v>302</v>
-      </c>
-      <c r="I23" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="J23" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="19" customFormat="1">
-      <c r="B24" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="19">
-        <v>8</v>
-      </c>
-      <c r="I24" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="J24" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" s="19" customFormat="1">
-      <c r="B25" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>297</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>300</v>
-      </c>
-      <c r="E25" s="35" t="s">
-        <v>310</v>
-      </c>
-      <c r="I25" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="J25" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="19">
-        <v>5</v>
-      </c>
+      <c r="E26" s="19"/>
       <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
+      <c r="G26" s="19" t="s">
+        <v>211</v>
+      </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J26" s="19" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="19" t="s">
-        <v>37</v>
-      </c>
+      <c r="A27" s="19"/>
       <c r="B27" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="19"/>
+        <v>109</v>
+      </c>
+      <c r="C27" s="19"/>
+      <c r="D27" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="19">
+        <v>1</v>
+      </c>
       <c r="F27" s="19"/>
-      <c r="G27" s="19" t="s">
-        <v>148</v>
-      </c>
+      <c r="G27" s="19"/>
       <c r="H27" s="19"/>
       <c r="I27" s="19" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J27" s="19" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="19" t="s">
-        <v>37</v>
-      </c>
+      <c r="A28" s="19"/>
       <c r="B28" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>150</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="C28" s="19"/>
       <c r="D28" s="27" t="s">
         <v>47</v>
       </c>
       <c r="E28" s="19"/>
       <c r="F28" s="19"/>
       <c r="G28" s="19" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19" t="s">
@@ -6014,20 +5995,16 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="19" t="s">
-        <v>37</v>
-      </c>
+      <c r="A29" s="19"/>
       <c r="B29" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>39</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="C29" s="19"/>
       <c r="D29" s="25" t="s">
         <v>40</v>
       </c>
       <c r="E29" s="19">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F29" s="19"/>
       <c r="G29" s="19"/>
@@ -6040,107 +6017,127 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="19"/>
+      <c r="A30" s="19" t="s">
+        <v>37</v>
+      </c>
       <c r="B30" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="25" t="s">
-        <v>91</v>
+        <v>113</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>47</v>
       </c>
       <c r="E30" s="19"/>
       <c r="F30" s="19"/>
       <c r="G30" s="19" t="s">
-        <v>210</v>
+        <v>154</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J30" s="19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="19"/>
+      <c r="A31" s="19" t="s">
+        <v>37</v>
+      </c>
       <c r="B31" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="C31" s="19"/>
+        <v>116</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>39</v>
+      </c>
       <c r="D31" s="25" t="s">
         <v>40</v>
       </c>
       <c r="E31" s="19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F31" s="19"/>
       <c r="G31" s="19"/>
       <c r="H31" s="19"/>
       <c r="I31" s="19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J31" s="19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="19"/>
+      <c r="A32" s="19" t="s">
+        <v>37</v>
+      </c>
       <c r="B32" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="25" t="s">
-        <v>91</v>
+        <v>118</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>43</v>
       </c>
       <c r="E32" s="19"/>
       <c r="F32" s="19"/>
       <c r="G32" s="19" t="s">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J32" s="19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="19"/>
+      <c r="A33" s="19" t="s">
+        <v>37</v>
+      </c>
       <c r="B33" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="E33" s="19">
-        <v>1</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="19"/>
       <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
+      <c r="G33" s="19" t="s">
+        <v>161</v>
+      </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J33" s="19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="19"/>
+      <c r="A34" s="19" t="s">
+        <v>37</v>
+      </c>
       <c r="B34" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="E34" s="19"/>
+        <v>121</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>308</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="19">
+        <v>10</v>
+      </c>
       <c r="F34" s="19"/>
-      <c r="G34" s="19" t="s">
-        <v>160</v>
-      </c>
+      <c r="G34" s="19"/>
       <c r="H34" s="19"/>
       <c r="I34" s="19" t="s">
         <v>5</v>
@@ -6150,25 +6147,29 @@
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="19"/>
+      <c r="A35" s="19" t="s">
+        <v>37</v>
+      </c>
       <c r="B35" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="E35" s="19">
-        <v>1</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="C35" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" s="19"/>
       <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
+      <c r="G35" s="19" t="s">
+        <v>213</v>
+      </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J35" s="19" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -6176,25 +6177,25 @@
         <v>37</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="D36" s="27" t="s">
-        <v>47</v>
+        <v>306</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>165</v>
       </c>
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
       <c r="G36" s="19" t="s">
-        <v>154</v>
+        <v>213</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J36" s="19" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -6202,25 +6203,25 @@
         <v>37</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="E37" s="19">
-        <v>5</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>309</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" s="19"/>
       <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
+      <c r="G37" s="19" t="s">
+        <v>304</v>
+      </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J37" s="19" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -6228,25 +6229,25 @@
         <v>37</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="D38" s="19" t="s">
-        <v>43</v>
+        <v>251</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>216</v>
       </c>
       <c r="E38" s="19"/>
       <c r="F38" s="19"/>
       <c r="G38" s="19" t="s">
-        <v>161</v>
+        <v>304</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J38" s="19" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -6254,25 +6255,23 @@
         <v>37</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D39" s="27" t="s">
-        <v>47</v>
+        <v>132</v>
+      </c>
+      <c r="C39" s="19"/>
+      <c r="D39" s="25" t="s">
+        <v>91</v>
       </c>
       <c r="E39" s="19"/>
       <c r="F39" s="19"/>
       <c r="G39" s="19" t="s">
-        <v>161</v>
+        <v>305</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J39" s="19" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -6280,25 +6279,23 @@
         <v>37</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="C40" s="34" t="s">
-        <v>308</v>
-      </c>
-      <c r="D40" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="E40" s="19">
-        <v>10</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="C40" s="19"/>
+      <c r="D40" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E40" s="19"/>
       <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
+      <c r="G40" s="19" t="s">
+        <v>164</v>
+      </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J40" s="19" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -6306,18 +6303,16 @@
         <v>37</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="C41" s="34" t="s">
-        <v>307</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="C41" s="19"/>
       <c r="D41" s="19" t="s">
         <v>43</v>
       </c>
       <c r="E41" s="19"/>
       <c r="F41" s="19"/>
       <c r="G41" s="19" t="s">
-        <v>213</v>
+        <v>166</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19" t="s">
@@ -6332,18 +6327,18 @@
         <v>37</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="D42" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="E42" s="19"/>
+        <v>136</v>
+      </c>
+      <c r="C42" s="19"/>
+      <c r="D42" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>167</v>
+      </c>
       <c r="F42" s="19"/>
       <c r="G42" s="19" t="s">
-        <v>213</v>
+        <v>166</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19" t="s">
@@ -6358,18 +6353,18 @@
         <v>37</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="C43" s="34" t="s">
-        <v>309</v>
-      </c>
-      <c r="D43" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E43" s="19"/>
+        <v>137</v>
+      </c>
+      <c r="C43" s="19"/>
+      <c r="D43" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E43" s="28" t="s">
+        <v>169</v>
+      </c>
       <c r="F43" s="19"/>
       <c r="G43" s="19" t="s">
-        <v>304</v>
+        <v>168</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19" t="s">
@@ -6384,19 +6379,17 @@
         <v>37</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>251</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="C44" s="19"/>
       <c r="D44" s="25" t="s">
-        <v>216</v>
-      </c>
-      <c r="E44" s="19"/>
+        <v>40</v>
+      </c>
+      <c r="E44" s="19">
+        <v>1</v>
+      </c>
       <c r="F44" s="19"/>
-      <c r="G44" s="19" t="s">
-        <v>304</v>
-      </c>
+      <c r="G44" s="19"/>
       <c r="H44" s="19"/>
       <c r="I44" s="19" t="s">
         <v>7</v>
@@ -6410,7 +6403,7 @@
         <v>37</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C45" s="19"/>
       <c r="D45" s="25" t="s">
@@ -6419,7 +6412,7 @@
       <c r="E45" s="19"/>
       <c r="F45" s="19"/>
       <c r="G45" s="19" t="s">
-        <v>305</v>
+        <v>170</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19" t="s">
@@ -6434,17 +6427,17 @@
         <v>37</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C46" s="19"/>
-      <c r="D46" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="E46" s="19"/>
+      <c r="D46" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E46" s="19">
+        <v>2</v>
+      </c>
       <c r="F46" s="19"/>
-      <c r="G46" s="19" t="s">
-        <v>164</v>
-      </c>
+      <c r="G46" s="19"/>
       <c r="H46" s="19"/>
       <c r="I46" s="19" t="s">
         <v>7</v>
@@ -6458,17 +6451,15 @@
         <v>37</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C47" s="19"/>
-      <c r="D47" s="19" t="s">
-        <v>43</v>
+      <c r="D47" s="26" t="s">
+        <v>171</v>
       </c>
       <c r="E47" s="19"/>
       <c r="F47" s="19"/>
-      <c r="G47" s="19" t="s">
-        <v>166</v>
-      </c>
+      <c r="G47" s="19"/>
       <c r="H47" s="19"/>
       <c r="I47" s="19" t="s">
         <v>7</v>
@@ -6482,18 +6473,16 @@
         <v>37</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C48" s="19"/>
-      <c r="D48" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E48" s="19" t="s">
-        <v>167</v>
-      </c>
+      <c r="D48" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E48" s="19"/>
       <c r="F48" s="19"/>
       <c r="G48" s="19" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19" t="s">
@@ -6508,19 +6497,17 @@
         <v>37</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C49" s="19"/>
-      <c r="D49" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E49" s="28" t="s">
-        <v>169</v>
+      <c r="D49" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E49" s="19">
+        <v>20</v>
       </c>
       <c r="F49" s="19"/>
-      <c r="G49" s="19" t="s">
-        <v>168</v>
-      </c>
+      <c r="G49" s="19"/>
       <c r="H49" s="19"/>
       <c r="I49" s="19" t="s">
         <v>7</v>
@@ -6534,23 +6521,23 @@
         <v>37</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C50" s="19"/>
-      <c r="D50" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="E50" s="19">
-        <v>1</v>
-      </c>
+      <c r="D50" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E50" s="19"/>
       <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
+      <c r="G50" s="19" t="s">
+        <v>173</v>
+      </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J50" s="19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -6558,23 +6545,23 @@
         <v>37</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C51" s="19"/>
-      <c r="D51" s="25" t="s">
-        <v>91</v>
+      <c r="D51" s="19" t="s">
+        <v>174</v>
       </c>
       <c r="E51" s="19"/>
       <c r="F51" s="19"/>
       <c r="G51" s="19" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J51" s="19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -6582,23 +6569,23 @@
         <v>37</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C52" s="19"/>
-      <c r="D52" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="E52" s="19">
-        <v>2</v>
-      </c>
+      <c r="D52" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E52" s="19"/>
       <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
+      <c r="G52" s="19" t="s">
+        <v>175</v>
+      </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J52" s="19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -6606,170 +6593,28 @@
         <v>37</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C53" s="19"/>
-      <c r="D53" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="E53" s="19"/>
+      <c r="D53" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E53" s="19">
+        <v>8</v>
+      </c>
       <c r="F53" s="19"/>
       <c r="G53" s="19"/>
       <c r="H53" s="19"/>
       <c r="I53" s="19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J53" s="19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B54" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="C54" s="19"/>
-      <c r="D54" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="J54" s="19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B55" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="C55" s="19"/>
-      <c r="D55" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="E55" s="19">
-        <v>20</v>
-      </c>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="J55" s="19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B56" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="C56" s="19"/>
-      <c r="D56" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="J56" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B57" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="J57" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B58" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="C58" s="19"/>
-      <c r="D58" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="J58" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B59" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="C59" s="19"/>
-      <c r="D59" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="E59" s="19">
-        <v>8</v>
-      </c>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="J59" s="19" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="D28">
+  <conditionalFormatting sqref="D22">
     <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -6777,7 +6622,7 @@
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
+  <conditionalFormatting sqref="D30">
     <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -6785,7 +6630,7 @@
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
+  <conditionalFormatting sqref="D28">
     <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -6793,7 +6638,7 @@
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
+  <conditionalFormatting sqref="D40">
     <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -6801,7 +6646,7 @@
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D49">
+  <conditionalFormatting sqref="D42:D43">
     <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -6809,7 +6654,7 @@
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D49">
+  <conditionalFormatting sqref="D42:D43">
     <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -6817,7 +6662,7 @@
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
+  <conditionalFormatting sqref="D47">
     <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -6825,7 +6670,7 @@
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
+  <conditionalFormatting sqref="D47">
     <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -6833,7 +6678,7 @@
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
+  <conditionalFormatting sqref="D50">
     <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -6841,7 +6686,7 @@
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
+  <conditionalFormatting sqref="D52">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -6849,7 +6694,7 @@
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
+  <conditionalFormatting sqref="D36">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -6857,7 +6702,7 @@
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
+  <conditionalFormatting sqref="D4">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -6865,7 +6710,7 @@
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
+  <conditionalFormatting sqref="D33">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -6874,22 +6719,231 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D28 D34 D36 D58 D10 D39" xr:uid="{50788899-E0E5-45DE-AB17-A6762077BC7F}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D22 D28 D30 D52 D4 D33" xr:uid="{50788899-E0E5-45DE-AB17-A6762077BC7F}">
       <formula1>Actions</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E49" r:id="rId1" xr:uid="{D9267B5E-D73A-4CD2-A4C7-04E9CBD2191A}"/>
+    <hyperlink ref="E43" r:id="rId1" xr:uid="{D9267B5E-D73A-4CD2-A4C7-04E9CBD2191A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECABD4C4-F085-4AC9-88B8-503E717C1DAB}">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" thickBot="1">
+      <c r="A1" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="25">
+        <v>5</v>
+      </c>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="H5" s="27"/>
+      <c r="I5" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="H6" s="27"/>
+      <c r="I6" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="H7" s="27"/>
+      <c r="I7" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="25">
+        <v>5</v>
+      </c>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8242E53-84F4-4393-ACE8-38282F3A4110}">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I38" sqref="I38:I39"/>
     </sheetView>
   </sheetViews>
